--- a/3.b.WordFrequency/TFIDF-K-means/split_cluster/cluster_6.xlsx
+++ b/3.b.WordFrequency/TFIDF-K-means/split_cluster/cluster_6.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Word Frequency" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A119"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,37 +440,86 @@
           <t>result</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>processed_result</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>在群成员列表中，添加新成员的选项被错误地激活了，即使没有经过成员的同意也能直接将他们拉入群聊。</t>
+          <t>安全性差：群主可以直接将群转给群员，且群员的权限和群主没有太大区别，群主能多设置群内的相关文字内容，而群员可以直接邀请等，这样的话，群主不能限制群员的行为会让群内的信息泄露，导致安全性不好。应该添加一个群主对于群员的权限设置的功能，抑或群员邀请了之后需要经过管理员同意才能入群。</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>安全性 差 群主 群 转给 群员 群员 权限 群主 没有 太 区别 群主 设置 群内 相关 文字 内容 群员 邀请 这样的话 群主 不能 限制 群员 行为 群内 信息 泄露 安全性 不好 应该 添加 群主 群员 权限 设置 群员 邀请 之后 管理员 同意 入群</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>群里添加群成员不需要对方验证</t>
+          <t>在群成员列表中，添加新成员的选项被错误地激活了，即使没有经过成员的同意也能直接将他们拉入群聊。</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>群 成员 列表 添加 新 成员 选项 错误 激活 没有 成员 同意 拉 入 群聊</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>问题描述：当群主设置请求加入群的策略为拒绝请求时，群成员发送的邀请新成员的请求仍然能够无障碍通过。这违反了预期的功能行为，即被拒绝的请求应该无法成功邀请新成员。</t>
+          <t>非群管理员也可以直接邀请其他人进入群，而且不需要对方验证</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>非群 管理员 邀请 其他人 进入 群 验证</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>该软件界面显示“群成员”部分存在一个bug，其中“群主”和“群管理员”的头像被错误地展示为相同的图片。</t>
+          <t>问题描述：当群主设置请求加入群的策略为拒绝请求时，群成员发送的邀请新成员的请求仍然能够无障碍通过。这违反了预期的功能行为，即被拒绝的请求应该无法成功邀请新成员。</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>群主 设置 请求 加入 群 策略 拒绝请求 群 成员 发送 邀请 新 成员 请求 仍然 能够 无障碍 违反 预期 行为 拒绝 请求 应该 无法 成功 邀请 新 成员</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
+        <is>
+          <t>在群组设置中，当群主将请求加入群策略设置为拒绝请求并由管理员审批时，成员仍可随意邀请他人加入。同时，群主与管理员并未收到任何加入请求的信息。</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>群组 设置 当群 主将 请求 加入 群 策略 设置 拒绝请求 管理员 审批 成员 随意 邀请 加入 群主 管理员 并未 收到 加入 请求 信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>该软件界面显示“群成员”部分存在一个bug，其中“群主”和“群管理员”的头像被错误地展示为相同的图片。</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>界面显示 群 成员 部分 群主 群 管理员 头像 错误 展示 相同 图片</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>该软件存在以下bug：
 1. 用户界面中的群组管理功能似乎出现了问题，管理员无法设置其他用户为管理员，这与预期的功能不符。
@@ -477,829 +527,6440 @@
 3. 邀请成员入群的过程设计有缺陷，被邀请者在未明确同意的情况下就被加入到群聊中，这可能引发隐私和权限的问题。</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>以下 
+ .   用户界面 群组 管理 出现 管理员 无法 设置 管理员 预期 不符 
+ .   群组 人数 变动 成员 退出 群聊 系统 没有 提供 适当 通知 机制 群主 群主 群组 状态 不知情 
+ .   邀请 成员 入群 过程 设计 缺陷 被邀请者 未 明确 同意 情况 加入 群聊 引发 隐私 权限</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>该应用程序的群组设置中存在一个bug，导致用户无法删除他们不想要的群组成员。尽管用户可以在群组成员列表中选择并长按要删除的成员，但系统并未执行删除操作，群组成员列表仍然显示所有选定的成员。</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>应用程序 群组 设置 无法 删除 想要 群 组成员 群 组成员 列表 选择 并长 删除 成员 系统 并未 执行 删除 群 组成员 列表 仍然 选定 成员</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>在群聊组中，当群成员退出群聊时，群主无法接收到相应的通知消息，导致群管理功能出现障碍。</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>群聊 组中 当群 成员 退出 群聊 群主 无法 接收 相应 通知 消息 群 管理 出现 障碍</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>该软件在群管理功能上存在缺陷。具体来说，当用户尝试在第三方应用程序或分享到其他群组时，只有群主能够复制群号码，而普通成员无法执行此操作。这一设计限制了群组信息的共享能力，导致用户无法轻松地将信息从一个群转移到另一个群，从而影响了软件的社交交互功能和用户体验。</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>群 管理 缺陷 具体来说 第三方 应用程序 分享 群组 群主 能够 复制 群号码 普通 成员 无法 执行 这一 设计 限制 群组 信息 共享 能力 无法 轻松 信息 群 转移 群 软件 社交 交互</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>问题描述：在使用该群组管理功能时，尽管已成功将某位成员设置为管理员，但在群组中，管理员与其他普通成员之间没有明显的区别显示。这意味着用户无法直观地识别哪些成员是管理员，这违反了设置管理员的初衷，即为了区分和管理群组的不同成员角色，确保群组管理的高效性和明确性。</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>群组 管理 成功 某位 成员 设置 管理员 群组 管理员 普通 成员 之间 没有 明显 区别 意味着 无法 直观 识别 成员 管理员 违反 设置 管理员 初衷 区分 管理 群组 不同 成员 角色 确保 群组 管理 高效性 明确性</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>该软件中存在一个显示问题，导致用户在群聊界面无法准确区分管理员和其他普通成员。在设置某个成员为管理员后，界面上有时能明确地区分出管理员身份，而有时则不能。这造成了用户体验上的不一致和混淆。</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>群聊 界面 无法 准确 区分 管理员 普通 成员 设置 成员 管理员 界面 明确 地区 分出 管理员 身份 不能 造成 一致 混淆</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>群成员管理缺失删除成员功能</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>群 成员 管理 缺失 删除 成员</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>在群成员管理界面中，当用户长按某个群成员时，系统错误地显示了权限不足的提示信息。实际上，根据预期的操作流程，此时系统应该展示与该群成员相关的操作选项，例如移出群聊、设置管理员权限等。这个错误导致群主无法进行预期中的群成员管理操作。</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>群 成员 管理 界面 长 群 成员 系统 错误 权限 不足 提示信息 实际上 预期 系统 应该 展示 群 成员 相关 选项 移出 群聊 设置 管理员 权限 错误 群主 无法 进行 预期 群 成员 管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>在当前系统中，当一个群聊中只有一位成员时，该群聊无法通过搜索功能被用户发现。这可能影响了用户的使用体验，尤其是当他们希望找到并加入或管理这类群聊时。</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>当前 系统 群聊 一位 成员 群聊 无法 搜索 发现 尤其 希望 找到 加入 管理 类群 聊时</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>在群聊中，当组员退出时，并没有通知或提示给群主。同样地，当该组员试图重新加入这个群聊时，也没有相应的提示或通知告知他/她。这可能导致群主和组员之间的沟通不畅，增加了误解和混淆的风险。</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>群聊 组员 退出 没有 通知 提示 群主 同样 当该 组员 试图 重新加入 群聊 没有 相应 提示 通知 告知 / 群主 组员 之间 沟通 畅 增加 误解 混淆 风险</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>该软件界面显示一个群组设置页面，其中包含多个选项和图标。其中一个群成员正在尝试添加新成员，而另一个成员已经加入了该群。然而，尽管设置了需要验证或者不允许任何人的加入策略，但已经在群里的成员似乎能够绕过管理员的审批流程，直接添加新成员到群组中。这可能表明存在一个bug或设计缺陷，使得某些用户能够利用这个设置来绕过群管理的限制。</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>界面显示 群组 设置 页面 包含 多个 选项 图标 群 成员 正在 添加 新 成员 成员 加入 群 设置 验证 允许 任何人 加入 策略 群里 成员 能够 绕过 管理员 审批 添加 新 成员 群组 表明 设计 缺陷 能够 利用 设置 绕过 群 管理 限制</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>该软件中的群聊功能存在一个显著的缺陷。用户无法在群聊中为每个成员单独设置或更改他们的昵称，这大大限制了用户的个性化和自定义能力。此外，这也可能导致沟通上的不便，因为用户无法通过昵称来快速识别群聊中的其他成员。</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>群聊 显著 缺陷 无法 群聊 中为 每个 成员 单独 设置 更改 昵称 大大 限制 个性化 自定义 能力 沟通 不便 无法 昵称 快速 识别 群聊 成员</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>该软件在群管理设置中存在一个明显的bug。根据设定，只有当群主同意后，成员才能加入群聊。然而，当前的软件配置允许成员在未得到群主同意的情况下拉取其他成员进入群聊。这种情况可能会导致群内信息的混乱和管理的困难，从而影响群聊的正常运作和用户的使用体验。</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>群 管理 设置 明显 设定 群主 同意 成员 加入 群聊 当前 软件 配置 允许 成员 未 得到 群主 同意 情况 下拉取 成员 进入 群聊 情况 群内 信息 混乱 管理 困难 群聊 正常 运作</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>在群聊管理界面中，当管理员尝试更改成员的名称后，该名称的更新并未在群聊信息中实时反映。尽管成员已成功修改其昵称，但在群聊内的成员列表中，该成员的信息名仍然保持不变，没有跟随新昵称的改动而更新。</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>群聊 管理 界面 管理员 更改 成员 名称 名称 更新 并未 群聊 信息 实时 反映 成员 成功 修改 昵称 群聊 成员 列表 成员 信息 名 仍然 保持 不变 没有 跟随 新 昵称 改动 更新</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>该软件界面在展示成员选择时存在视觉和功能上的问题。首先，当所有成员的头像相同时，用户无法通过头像区分各个成员的身份，这可能导致用户在选择成员时的混淆和误解。其次，当已选择的成员数量超过8个后，后续的成员头像不再显示，导致用户无法看到所有的成员选项，这可能会影响用户的选择效率并降低用户体验。</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>界面 展示 成员 选择 视觉 成员 头像 相同 无法 头像 区分 成员 身份 选择 成员 混淆 误解 当已 选择 成员 数量 超过 后续 成员 头像 不再 无法 看到 成员 选项 选择 效率 降低</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>在软件界面中，当用户选择群成员时，系统并未提供邀请选项，而是直接将所选成员强制加入群组。这种强制性的加群策略与用户期望的邀请制不符，可能导致用户对系统的不满和困惑。</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>软件 界面 选择 群 成员 系统 并未 提供 邀请 选项 所选 成员 强制 加入 群组 强制性 加群 策略 期望 邀请 制 不符 对系统 不满 困惑</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>问题描述：该群组管理功能存在一个明显的bug，使得管理员在面对不符合群规范的成员时无法采取任何措施。具体来说，只有当群成员自己主动退出群组时，才能离开该群。因此，如果某个成员违反了群规定，管理员将无法通过踢出功能将其移出群组。这显然违背了群组管理的基本要求，可能导致对群内行为的控制失效。</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>群组 管理 明显 管理员 面对 符合 群 规范 成员 无法 采取任何 措施 具体来说 当群 成员 主动 退出 群组 离开 该群 成员 违反 群 规定 管理员 无法 踢 出 移出 群组 显然 违背 群组 管理 基本 要求 群内 行为 控制 失效</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>问题描述：软件界面中，关于群组设置的权限部分存在逻辑错误。在“群组设置”中，当选择“允许所有人添加成员”时，下方的“请求加入群策略”权限选项包括了“同意加入”，“管理员审批”，和“拒绝请求”。这与上方的设置项存在明显的冲突。根据逻辑推理，若已经选择了“允许所有人添加成员”，则“请求加入群策略”中的“同意加入”、“管理员审批”和“拒绝请求”选项应是多余的或无效的，因为它们与主要设置相悖。</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>软件 界面 群组 设置 权限 部分 逻辑 错误 群组 设置 选择 允许 所有人 添加 成员 下方 请求 加入 群 策略 权限 选项 包括 同意 加入 管理员 审批 拒绝请求 上方 设置 项 明显 冲突 逻辑推理 选择 允许 所有人 添加 成员 请求 加入 群 策略 同意 加入 管理员 审批 拒绝请求 选项 应是 多余 无效 设置 相悖</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>该软件界面显示群组设置选项，其中包含群成员信息和群管理功能。然而，在尝试执行踢出群成员的操作时，系统似乎没有反应或错误提示，导致群主无法将成员从群组中移除。这可能表明一个功能性的问题，需要进一步的分析和调试来确定具体原因。</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>界面显示 群组 设置 选项 包含 群 成员 信息 群 管理 执行 踢 出群 成员 系统 没有 反应 错误 提示 群主 无法 成员 群组 移除 表明 功能性 进一步 分析 调试 确定 具体 原因</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>新建群选择群员时，应该可以选已存在于本地其他群聊中的成员为佳。</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>新建 群 选择 群员时 应该 选已 群聊 成员 为佳</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>作为一个群主，我居然不能禁言，我还是不是群主了</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>群主 居然 不能 禁言 是不是 群主</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>不能将其他人设置为群管理员。</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>不能 其他人 设置 为群 管理员</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>在测试过程中，当进入“我的群组”界面并尝试添加成员时，系统并未正确地显示群成员数量的警告信息。尽管设置群名称为123并且点击了打勾图标以确认，但系统错误地允许了一个只有两个成员的群聊被创建，这与预期的功能不符，即群聊的成员数量不应少于3个。</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>过程 进入 群组 界面 添加 成员 系统 并未 正确 群 成员 数量 警告 信息 设置 群 名称 123 点击 打勾 图标 确认 系统 错误 允许 两个 成员 群聊 创建 预期 不符 群聊 成员 数量 应 少于</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>缺少群内对某些人禁言的功能。缺少群主对整个群禁止发言的功能。</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>缺少 群内 禁言 缺少 群主 整个 群 禁止 发言</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>缺少修改群成员备注的功能。</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>缺少 修改 群 成员 备注</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>在创建的群组聊天界面中，当群主或管理员在发送消息时，其消息后缀并未显示相应的角色标识（如“群主”或“管理员”）。这可能导致用户难以区分消息是由群主还是管理员发送的。</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>创建 群组 聊天 界面 群主 管理员 发送 消息 消息 后缀 并未 相应 角色 标识 群主 管理员 难以 区分 消息 群主 管理员 发送</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>在创建群成功后，该功能界面中缺少了“管理员设置”这一选项，导致用户无法为新创建的群组设置管理员。这在多人大群的情况下尤其不便，因为缺乏管理员设置可能会导致群组管理困难，影响群组的正常运行与沟通效率。</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>创建 群 成功 界面 缺少 管理员 设置 这一 选项 无法 新创建 群组 设置 管理员 人大 群 情况 尤其 不便 缺乏 管理员 设置 群组 管理 困难 群组 正常 运行 沟通 效率</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>设置群成员为该群管理员时，没有相应的设置群管理员消息提示。</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>设置 群 成员 群 管理员 没有 相应 设置 群 管理员 消息 提示</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>该应用程序在群聊中存在一个显示问题。新加入的成员无法查看到除他们之外其他成员的过往聊天记录，这违反了用户期望，可能导致信息不对称和沟通障碍。</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>应用程序 群聊 新 加入 成员 无法 查看 之外 成员 过往 聊天记录 违反 期望 信息 对称 沟通 障碍</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>在群聊界面中，当有成员退出群聊时，当前的提示功能似乎出现了故障。具体来说，群主和仍在群聊中的其他成员并未收到任何关于成员退出的通知或提示，这可能导致了对群内动态的不知情，影响了群聊的管理和沟通效率。</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>群聊 界面 当有 成员 退出 群聊 当前 提示 出现 故障 具体来说 群主 群聊 成员 并未 收到 成员 退出 通知 提示 群内 动态 不知情 群聊 管理 沟通 效率</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>该软件中存在一个bug，当用户退出群组时，尽管群主在群成员列表中看不到该成员，但群主并未收到任何通知或提示表明有成员已退出。</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>退出 群组 群主 群 成员 列表 看不到 成员 群主 并未 收到 通知 提示 表明 成员 退出</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>在群组设置中选择退出群组后，用户的手机提示“你退出了‘东大荒’”，但群主并未收到该成员已退出的系统通知。</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>群组 设置 选择 退出 群组 手机 提示 退出 ‘ 东大 荒 ’ 群主 并未 收到 成员 退出 系统 通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>申请加入群后，群主同意，但是群助手未提示</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>申请加入 群后 群主 同意 群 助手 未 提示</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>该软件在用户创建群聊后，当群成员退出时并未提供任何形式的提醒或通知，这与用户期望不符。用户可能无法得知哪些成员已经离开群聊，这可能导致群聊的管理和沟通效率受到影响。</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>创建 群聊 当群 成员 退出 并未 提供 形式 提醒 通知 期望 不符 无法 得知 成员 离开 群聊 群聊 管理 沟通 效率</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>该软件在创建群聊后，出现了显示错误。具体地，群主的信息并未正确展示，而且所展示的群主信息与群聊中的实际群主不符。这可能会导致用户在管理或识别群组活动时产生混淆。</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>创建 群聊 出现 错误 具体 群主 信息 并未 正确 展示 展示 群主 信息 群聊 群主 不符 管理 识别 群组 活动 产生 混淆</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>该软件在测试“群简介”功能时出现以下问题：
+1. 当群简介的字数超过设定的限制时，系统并未提供任何提示信息，导致用户无法得知他们的输入已经超过了限制。
+2. 当前，只有群主能够编辑群简介，而群成员无法进行编辑操作。然而，当发生这种情况时，系统并没有给用户发送任何消息或提示，这使得群成员无法得知他们没有权限进行编辑。</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>群 简介 出现 以下 
+ .   当群 简介 字数 超过 设定 限制 系统 并未 提供 提示信息 无法 得知 输入 超过 限制 
+ .   当前 群主 能够 编辑 群 简介 而群 成员 无法 进行 编辑 发生 情况 系统 没有 发送 消息 提示 群 成员 无法 得知 没有 权限 进行 编辑</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>这个bug描述的问题是：群组管理员无法将已经加入群的成员踢出群。根据图片中显示的功能，在群组设置里面，只能进行“勋章”、“满勤”、“菜鸟入行”等操作，而没有关于踢出成员的选项或功能。这意味着即使管理员想要移除不良成员，他们也无法执行这一操作。这可能会导致群组内部出现不安全因素和不良聊天环境，从而影响到群组的整体体验和安全性。</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>群组 管理员 无法 加入 群 成员 踢 出群 图片 群组 设置 里面 只能 进行 勋章 满勤 菜鸟 入 行 没有 踢 出 成员 选项 意味着 管理员 想要 移除 不良 成员 无法 执行 这一 群组 内部 出现 安全 因素 不良 聊天 环境 群组 整体 安全性</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>群主在建立群的时候如果设置了群的权限为“不允许任何人加入”或是“经过验证才能加入该群”，但是系统默认却允许群成员添加新成员进入，并且这个添加过程是不需要通知群主征得群主同意的，这样变破坏了群主设置该群权限的初衷，破环了群主的权利，不利于群的管理。</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>群主 建立 群 设置 群 权限 允许 任何人 加入 验证 加入 该群 系统 默认 允许 群 成员 添加 新 成员 进入 添加 过程 通知 群主 征得 群主 同意 变 破坏 群主 设置 该群 权限 初衷 破环 群主 权利 不利于 群 管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>在图像中，管理员界面显示了一个群组设置的菜单。其中“群成员”一栏下有“添加群成员”和“转让群”两个选项，但点击后并未出现相应的功能或操作界面。特别地，“群主”一栏下有一个“这有什么好秘密”的文字描述，这似乎是一个无关的信息或错误提示，而不是实际的功能描述。此外，“群公告”和“群头像”以及“群共享”等其他功能也未显示具体操作或设置选项。从这些信息来看，该软件似乎存在功能缺失的问题，特别是与管理群组成员相关的功能部分。</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>管理员 界面显示 群组 设置 菜单 群 成员 一栏 添加 群 成员 转让 群 两个 选项 点击 并未 出现 相应 操作界面 特别 群主 一栏 这有 秘密 文字描述 无关 信息 错误 提示 群 公告 群 头像 群 共享 未 具体操作 设置 选项 信息 来看 缺失 特别 管理 群 组成员 相关 部分</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>该软件中存在一个bug，即当群组管理员试图将某一成员强制退出群组时，该功能无法正常执行。尽管在“群成员”列表里可以看到该成员的头像和名称，但实际操作中却无法将其移除。这可能表明软件在处理群管理操作时存在问题，导致预期的功能未能实现。</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>即当 群组 管理员 试图 成员 强制 退出 群组 无法 正常 执行 群 成员 列表 里 看到 成员 头像 名称 实际操作 无法 移除 表明 软件 处理 群 管理 预期 未能 实现</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>该软件界面显示了群组管理功能，包括添加和移除用户。然而，当尝试踢出某个用户时，系统似乎没有执行这个操作，导致用户没有被成功移除。这可能是一个bug，因为通常来说，群主或管理员应该能够移除任何成员。</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>界面显示 群组 管理 包括 添加 移除 踢 出 系统 没有 执行 没有 成功 移除 通常 群主 管理员 应该 能够 移除 成员</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>该应用程序的群管理功能似乎存在缺陷，因为在该群组设置中没有提供添加或识别管理员的选项。这可能意味着群主无法将其他成员设置为管理员，或者应用程序本身的设计并未包括这一功能。此外，界面上也没有明显的“设置”或“管理”按钮，这进一步暗示了用户可能无法访问或更改群管理设置。</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>应用程序 群 管理 缺陷 群组 设置 没有 提供 添加 识别 管理员 选项 意味着 群主 无法 成员 设置 管理员 应用程序 设计 并未 包括 这一 界面 没有 明显 设置 管理 按钮 进一步 暗示 无法访问 更改 群 管理 设置</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>从图片描述来看，这个功能似乎存在冗余。当用户在群里点击群成员列表中的自己时，系统允许用户与自己进行对话。这可能表明系统没有明确区分与其他群成员的对话和与自己的对话，可能导致用户操作上的困惑或误操作。</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>图片 来看 冗余 群里 点击 群 成员 列表 系统 允许 进行 对话 表明 系统 没有 明确 区分 群 成员 对话 对话 困惑 误操作</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>该软件界面显示的群组设置中，当用户尝试更改群主名称后，系统未能正确更新群主的名称。在“群组设置”部分，尽管用户已经更改了群主的昵称，但群主的名称仍然显示为默认的昵称，而不是用户自己设定的新昵称。</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>界面显示 群组 设置 更改 群主 名称 系统 未能 正确 更新 群主 名称 群组 设置 部分 更改 群主 昵称 群主 名称 仍然 默认 昵称 设定 新 昵称</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>在软件的群聊添加成员功能中，用户界面存在一个性能问题。当用户在成员列表上以高频率快速点击时，会出现成员图像闪烁的现象。这种闪动可能是由于界面渲染速度跟不上用户操作的速度导致的，这影响了用户体验，使得界面看起来不稳定和不专业。</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>软件 群聊 添加 成员 用户界面 性能 成员 列表 上以 高频率 快速 点击 出现 成员 闪烁 现象 闪动 界面 渲染 速度 跟不上 速度 界面 看起来 稳定 专业</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>在群通讯录中选择未进群的成员时，当群成员数量较多，系统出现错误提示。</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>群 通讯录 选择 未 进群 成员 当群 成员 数量 系统 出现 错误 提示</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>该bug的描述如下：在群设置中，当群显示为“任何人都可以加入”时，原本的预期结果是组内其他人拉新成员入群需要管理员审核，而群主拉人则不需要。但实际测试结果与预期不符，即无论是群主还是组内其他成员拉新成员入群都不需要管理员审核，这显然违反了原始的设计意图和功能需求，可能导致群管理出现混乱。</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>群 设置 当群 任何人 加入 原本 预期 组内 其他人 拉新 成员 入群 管理员 审核 群主 拉人 预期 不符 无论是 群主 组内 成员 拉新 成员 入群 管理员 审核 显然 违反 原始 设计 意图 需求 群 管理 出现 混乱</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>该功能存在逻辑错误，群主在尝试转让群组时未能成功进行操作。</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>逻辑 错误 群主 转让 群组 未能 成功 进行</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>描述：
+在群聊中，当群主尝试将管理员移出群聊时，系统错误地显示了“管理员杰迷268移出群聊”的提示信息。该提示信息混淆了管理员和群主的身份，导致用户误解为是管理员而非群主执行了移出操作。</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 群聊 群主 管理员 移出 群聊 系统 错误 管理员 杰迷 268 移出 群聊 提示信息 提示信息 混淆 管理员 群主 身份 误解 管理员 非 群主 执行 移出</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>申请加入群组是的附加信息，在该群群主那里显示的特别别扭。应用一个文本框单独框起来。显得整齐一点</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>申请加入 群组 附加 信息 群 群主 特别 别扭 应用 文本框 单独 框起来 显得 整齐 一点</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>在创建群组并查看其设置后，发现群主显示的信息并非创建者本人。然而，在重新启动应用之后，群主的名称发生了不可预测的变化，这可能指向一个身份验证或信息更新的问题。</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>创建 群组 查看 设置 发现 群主 信息 创建者 重新启动 应用 之后 群主 名称 发生 不可 预测 变化 指向 身份验证 信息 更新</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>该软件在显示群成员时，没有遵循预期的首字母排序逻辑。用户期望看到的是群主位于列表前端，而其他成员根据首字母顺序排列。然而，当前显示的是直接按首字母排序，导致用户体验混乱，不符合常规的查看和排序方式。</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>群 成员 没有 预期 首字母 排序 逻辑 期望 看到 群主 位于 列表 前端 成员 首字母 顺序排列 当前 首字母 排序 混乱 符合 常规 查看 排序 方式</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>在群聊中，当用户@一个其他成员后，如果需要撤销对特定成员的@标记，他们必须逐个删除字符。这导致了效率低下和不便的操作。更理想的用户体验应该是在@符号之后有一个空格，这样用户可以通过删除该空格来移除@的用户名称。当前的设计导致用户必须删除整个被@的用户名称串才能达到目的，这无疑增加了操作的复杂性。</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>群聊 @ 成员 撤销 特定 成员 @ 标记 必须 逐个 删除 字符 效率 低下 不便 更 理想 应该 @ 符号 之后 空格 删除 空格 移除 @ 名称 当前 设计 必须 删除 整个 @ 名称 串 达到 目的 无疑 增加 复杂性</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>该软件在群聊功能中存在一个bug。当群主解散群聊时，系统仅向群主提示了信息，而没有通知所有群成员。同样，当群主尝试转让群聊权限时，系统也只向新群主发送了提示，并未通知其他群成员。此外，在群成员选择退出群聊时，系统仅向该成员发送了退出通知，而未通知群主。这违反了通常的社交软件设计逻辑，通常在此类操作发生时，应该同时通知所有相关方，以确保信息的透明度和公正性。</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>群聊 群主 解散 群聊 系统 仅 群主 提示 信息 没有 通知 群 成员 同样 群主 转让 群聊 权限 系统 新 群主 发送 提示 并未 通知 群 成员 群 成员 选择 退出 群聊 系统 仅 成员 发送 退出 通知 未 通知 群主 违反 通常 社交 软件设计 逻辑 通常 此类 发生 应该 通知 相关 方 确保 信息 透明度 公正性</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>在群聊中，新加入的成员会在“朋友”按钮或群聊页面显示提示。目前，系统同时提供了红色符号和声音两种提示方式来通知群成员有新成员加入，这可能会造成信息过载和不必要的干扰。建议优化为只向群主发送新成员加入的通知，或者减少提示方式，以提升用户体验。</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>群聊 新 加入 成员 朋友 按钮 群聊 页面 提示 目前 系统 提供 红色 符号 声音 两种 提示 方式 通知 群 成员 新 成员 加入 造成 信息 过载 不必要 干扰 建议 优化 群主 发送 新 成员 加入 通知 减少 提示 方式 提升</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>在群聊的设置中，当试图更改管理员权限或相关设置时，系统似乎没有提供直接的管理员设置选项。尽管有某些设置需要管理员的批准，但用户界面并没有提供一个明确的区域来管理或添加管理员。这可能导致用户在尝试管理或修改群组设置时遇到困难，因为他们无法直接访问或操作与管理员相关的功能。</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>群聊 设置 试图 更改 管理员 权限 相关 设置 系统 没有 提供 管理员 设置 选项 设置 管理员 批准 用户界面 没有 提供 明确 区域 管理 添加 管理员 管理 修改 群组 设置 遇到困难 无法 访问 管理员 相关</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>当用户尝试在群成员已被完全移除后进行转让操作时，系统并未提供适当的反馈。尽管所有群成员都已消失，但点击“转让群”后，界面仍然显示选择转让对象，并没有明确提示该群内已无其他成员可供转让。这可能导致用户误解或感到困惑，不知道该如何进行下一步操作。</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>群 成员 完全 移除 进行 转让 系统 并未 提供 适当 反馈 群 成员 消失 点击 转让 群 界面 仍然 选择 转让 对象 没有 明确 提示 群内 成员 供 转让 误解 感到 困惑 知道 进行 一步</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>当把群主让给别人时，新群主收到的消息是“成为群群主”，没有说出群的名称。从消息中不知道成为那一个群的群主。</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>群主 让给 新 群主 收到 消息 成为 群 群主 没有 说出 群 名称 消息 知道 成为 群 群主</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>在群管理界面中，当执行群主转让操作时，系统未能正确触发并展示转让请求确认环节给被转让者。这导致被转让者无法得知其是否已被选为新的群主，从而可能导致管理上的混乱或误解。</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>群 管理 界面 执行 群主 转让 系统 未能 正确 触发 展示 转让 请求 确认 环节 转让 转让 无法 得知 是否 被选为 新 群主 管理 混乱 误解</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>该软件中存在一个漏洞，允许群主无视成员的同意与否，随意将人员拉入群组。这可能导致用户隐私和信息安全的风险。</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>漏洞 允许 群主 无视 成员 同意 随意 人员 拉 入 群组 隐私 信息安全 风险</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>该软件界面中新建群聊功能存在问题，用户在点击添加成员的按钮后，原本预期会直接显示“删除”和设置管理员等必备功能，但实际结果是需要长按群成员头像才能显示这些选项。这种设计使得用户操作不便，与预期结果不符，降低了用户体验。</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>界面 新建 群聊 点击 添加 成员 按钮 原本 预期 删除 设置 管理员 必备 长 按群 成员 头像 选项 设计 不便 预期 不符 降低</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>群成员在拉人时，只需要单方面邀请便可以将该成员拉入组内，这会给对方造成比较大的麻烦，有时候不想进的组也可以拉你进入。</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>群 成员 拉人时 单方面 邀请 便 成员 拉入 组内 这会 造成 比较 麻烦 有时候 不想 进 组 拉 进入</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>群聊成员退出,群主没有收到消息提示</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>群聊 成员 退出 , 群主 没有 收到 消息 提示</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>该软件在群成员管理功能上存在缺陷，用户无法直接点击进入群成员的设置选项，必须进行长按操作才能实现。这种设计增加了用户的使用难度和不便，影响了用户体验。</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>群 成员 管理 缺陷 无法 点击 进入 群 成员 设置 选项 必须 进行 长 实现 设计 增加 难度 不便</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>在这张图片中，显示了一个聊天界面，其中的成员似乎没有进行任何实质性的交流，而是重复使用相同的几个词汇和表情符号。这可能表明该群组正在经历某种形式的社交互动问题，如成员之间的沟通障碍或缺乏深度对话。此外，群聊的邀请规则设置可能存在问题，使得任何群成员都可以邀请他人加入，即使他们可能是陌生人，这与通常的隐私和安全措施不符。</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>图片 聊天 界面 成员 没有 进行 实质性 交流 重复使用 相同 几个 词汇 表情符号 表明 群组 正在 经历 某种 形式 社交互动 成员 之间 沟通 障碍 缺乏 深度 对话 群聊 邀请 规则 设置 群 成员 邀请 加入 陌生人 通常 隐私 安全措施 不符</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>该软件在用户尝试行使群主管理员权利，将群聊中的好友移出或设为管理员时，界面反应不够直观。初始状态下，没有明确的指示告知用户需要长按操作，这导致用户在第一次使用时可能会感到困惑和不知所措。这种设计上的不清晰性增加了用户的学习成本，从而降低了用户体验。</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>行使 群主 管理员 权利 群聊 好友 移出 设为 管理员 界面 反应 不够 直观 初始状态 没有 明确 指示 告知 长 第一次 感到 困惑 不知所措 设计 清晰性 增加 学习 成本 降低</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>该软件在群消息设置更改时，提示框显示时间过短，导致用户无法进行截图。此外，全部已阅按钮的响应机制存在问题，需要长按才能触发，而点击时无任何反馈。成员退出群聊时，群主和管理员未能得到相应的通知。最后，物品购买的数量限制功能并未提供任何提醒或警告信息。</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>群 消息 设置 更改 提示框 时间 短 无法 进行 截图 已阅 按钮 响应 机制 长 触发 点击 反馈 成员 退出 群聊 群主 管理员 未能 得到 相应 通知 最后 物品 购买 数量 限制 并未 提供 提醒 警告 信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>在群设置中，群主与群成员看到的信息不一致。具体来说，当群主查看其个人资料时，他们看到的是一串数字“2004109408”，而群成员则直接看到了群主的昵称。这种差异可能导致群主无法准确识别自己的信息，从而影响他们在管理或更新群组信息时的体验。</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>群 设置 群主 群 成员 看到 信息 一致 具体来说 群主 查看 个人资料 看到 一串 数字 2004109408 而群 成员 看到 群主 昵称 差异 群主 无法 准确 识别 信息 管理 更新 群组 信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>在群聊中，管理员权限设置功能似乎存在故障。根据当前界面显示的信息，群主无法进行管理员的添加或转让操作，这可能表明软件在该功能上存在问题，导致用户无法正常管理群组内的管理员角色。</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>群聊 管理员 权限 设置 故障 当前 界面显示 信息 群主 无法 进行 管理员 添加 转让 表明 软件 无法 正常 管理 群组 管理员 角色</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>这是一个显示群成员列表的应用界面，但存在排序错误的问题。根据测试步骤，查看群成员的功能预期是首先展示群主的信息，然后按照字母顺序显示其他成员。然而，实际结果显示所有群成员是按首字母排序的，没有正确区分群主和其他成员，这与预期结果不符。</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>群 成员 列表 应用 界面 排序 错误 测试步骤 查看 群 成员 预期 展示 群主 信息 字母 顺序 成员 结果显示 群 成员 首字母 排序 没有 正确区分 群主 成员 预期 不符</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>在转让群住的时候，被转让的一方没有在群消息助手中提示信息说明自己被转让了群主，自己自己现在已经是哪一个群的群主了</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>转让 群住 转让 一方 没有 群 消息 助手 提示信息 说明 转让 群主 现在 群 群主</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>该问题描述了一个软件界面的bug。当用户在创建群聊后，尝试删除群聊中的某个成员时，点击该成员的头像会导致整个群聊被删除。</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>软件 界面 创建 群聊 删除 群聊 成员 点击 成员 头像 整个 群聊 删除</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>在群聊设置中，只有群主有权限更改群名称，而其他群成员则无法进行此操作。这种设计限制了用户对群组身份的个性化表达，可能导致用户感到沮丧和不便，从而影响整体的用户体验。</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>群聊 设置 群主 权限 更改 群 名称 群 成员 无法 进行 设计 限制 群组 身份 个性化 表达 感到 沮丧 不便 整体</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>这个bug描述为：在群聊中，尽管设置了群主权限，但群主仍然可以被禁言。</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>群聊 设置 群主 权限 群主 仍然 禁言</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>当一个群的群主将群主的位置转让给群中的另外一个用户时，只提示该用户成为了群群主，而不是提醒用户成为了哪个群的群主，除非用户进入群聊列表去查看，这让用户很不知发生了什么情况</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>群 群 主将 群主 位置 转让 群中 提示 成为 群 群主 提醒 成为 群 群主 进入 群聊 列表 查看 不知 发生 情况</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>在添加群成员的时候，取消改群成员，所有的待加入成员的头像都在闪</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>添加 群 成员 取消 改群 成员 加入成员 头像 闪</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B550"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>成员</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>群</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>群主</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>群聊</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>任务添二创建群，被加添加成员一次最多 20 个人，群组成员上限 500 个人，但是在添加人时，当勾选了某个用户，则该用户头像出现在底部勾选栏
-，确定（确认）：未选择人员，确定按钮置灰，勾选人员后，则变更为确认并且为可点击
-状态，括号中显示已勾选人数，人数超过上限无提示，括号只显示人数，到用户创建群才提示。添加完好友后，不正常闪退</t>
-        </is>
+          <t>设置</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>任务添二创建群，被加添加成员一次最多 20 个人，群组成员上限 500 个人，但是在添加人时，当勾选了某个用户，则该用户头像出现在底部勾选栏
-，确定（确认）：未选择人员，确定按钮置灰，勾选人员后，则变更为确认并且为可点击
-状态，括号中显示已勾选人数，人数超过上限无提示，括号只显示人数，到用户创建群才提示。</t>
-        </is>
+          <t>群组</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>该应用程序的群组设置中存在一个bug，导致用户无法删除他们不想要的群组成员。尽管用户可以在群组成员列表中选择并长按要删除的成员，但系统并未执行删除操作，群组成员列表仍然显示所有选定的成员。</t>
-        </is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>在朋友面板中，当尝试通过群聊设置添加20人以上的成员时，系统并未提供相应的选项。尽管界面上显示了勾选框和人数限制，实际上用户无法执行此操作。</t>
-        </is>
+          <t>无法</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>在群聊组中，当群成员退出群聊时，群主无法接收到相应的通知消息，导致群管理功能出现障碍。</t>
-        </is>
+          <t>没有</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>该软件在用户试图一次性添加超过20个群组成员时出现了一个bug。即使用户已经选择了30多个成员，软件仍然允许他们继续选择其他成员，同时“确定”按钮被设置为不可点击状态。这意味着用户无法完成他们的操作，这可能会导致用户感到困惑和沮丧。</t>
-        </is>
+          <t>系统</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>问题描述：在使用该群组管理功能时，尽管已成功将某位成员设置为管理员，但在群组中，管理员与其他普通成员之间没有明显的区别显示。这意味着用户无法直观地识别哪些成员是管理员，这违反了设置管理员的初衷，即为了区分和管理群组的不同成员角色，确保群组管理的高效性和明确性。</t>
-        </is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>该软件在创建群组的过程中存在一个用户界面的bug。当用户试图将超过20名成员添加到新群组时，软件允许他们继续进行此操作，即使已经超出了最大成员限制。然而，直到用户进入最后一步并尝试完成创建过程时，系统才显示一个错误消息，提示“请求的数据超出系统限制”。这个错误消息要求用户返回到添加成员的步骤并重新开始创建过程。这导致了不必要的用户交互和潜在的数据超载问题。</t>
-        </is>
+          <t>加入</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>该软件中存在一个显示问题，导致用户在群聊界面无法准确区分管理员和其他普通成员。在设置某个成员为管理员后，界面上有时能明确地区分出管理员身份，而有时则不能。这造成了用户体验上的不一致和混淆。</t>
-        </is>
+          <t>界面</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>这个bug的问题在于，根据系统当前的成员上限（2人），用户尝试添加198名成员时，系统提示“请求超过系统限制”，导致添加失败。这与需求中要求的群成员上限500人不符，实际上系统无法满足用户的添加请求。</t>
-        </is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>该软件在发起群聊并添加成员后，若网络连接断开，用户在输入关键字时系统并未给予网络断开的提示。</t>
-        </is>
+          <t>并未</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>群成员管理缺失删除成员功能</t>
-        </is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>在群成员管理界面中，当用户长按某个群成员时，系统错误地显示了权限不足的提示信息。实际上，根据预期的操作流程，此时系统应该展示与该群成员相关的操作选项，例如移出群聊、设置管理员权限等。这个错误导致群主无法进行预期中的群成员管理操作。</t>
-        </is>
+          <t>退出</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>添加群聊时，正常一次只能添加20个人，但选择添加人数却可以超过20个人。</t>
-        </is>
+          <t>通知</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>在当前系统中，当一个群聊中只有一位成员时，该群聊无法通过搜索功能被用户发现。这可能影响了用户的使用体验，尤其是当他们希望找到并加入或管理这类群聊时。</t>
-        </is>
+          <t>选项</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>在创建群选择群成员的过程中，选择的群成员超过了20人之后，没有相关的提示信息。</t>
-        </is>
+          <t>转让</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>在登录并发起群聊后，当用户添加了20个人到群聊中。在尝试继续添加其他成员时，发现有些成员已经被自动选中并添加到群聊中，但并未默认勾选。与此同时，有些成员则被正确勾选。这导致了群聊添加成员的界面出现了不一致和不准确的反应，可能影响了用户的正常使用体验。</t>
-        </is>
+          <t>权限</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>该软件界面显示一个群组设置页面，其中包含多个选项和图标。其中一个群成员正在尝试添加新成员，而另一个成员已经加入了该群。然而，尽管设置了需要验证或者不允许任何人的加入策略，但已经在群里的成员似乎能够绕过管理员的审批流程，直接添加新成员到群组中。这可能表明存在一个bug或设计缺陷，使得某些用户能够利用这个设置来绕过群管理的限制。</t>
-        </is>
+          <t>新</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>该软件中的群聊功能存在一个显著的缺陷。用户无法在群聊中为每个成员单独设置或更改他们的昵称，这大大限制了用户的个性化和自定义能力。此外，这也可能导致沟通上的不便，因为用户无法通过昵称来快速识别群聊中的其他成员。</t>
-        </is>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>该软件在群管理设置中存在一个明显的bug。根据设定，只有当群主同意后，成员才能加入群聊。然而，当前的软件配置允许成员在未得到群主同意的情况下拉取其他成员进入群聊。这种情况可能会导致群内信息的混乱和管理的困难，从而影响群聊的正常运作和用户的使用体验。</t>
-        </is>
+          <t>预期</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>在进入群组信息并尝试添加群成员后，搜索功能似乎出现了异常。当用户点击放大镜进行搜索时，他们可以找到的所有人都可以被直接拉入该群组，这显然违反了正常的操作流程和预期。此行为不仅可能违反用户的隐私权，而且对其他群成员也造成了不必要的干扰。</t>
-        </is>
+          <t>进行</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>该软件在用户尝试添加群组成员时，没有提供明确的提示信息告知用户已达到最大邀请用户数量限制。特别是在用户选择超过20位成员后，按钮应自动变为不可用状态，但目前软件中并未实现这一功能。这可能导致用户在不知情的情况下继续操作，直到他们意识到无法添加更多成员为止，给用户带来了不便和困扰。</t>
-        </is>
+          <t>选择</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>在群聊管理界面中，当管理员尝试更改成员的名称后，该名称的更新并未在群聊信息中实时反映。尽管成员已成功修改其昵称，但在群聊内的成员列表中，该成员的信息名仍然保持不变，没有跟随新昵称的改动而更新。</t>
-        </is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>该软件界面在展示成员选择时存在视觉和功能上的问题。首先，当所有成员的头像相同时，用户无法通过头像区分各个成员的身份，这可能导致用户在选择成员时的混淆和误解。其次，当已选择的成员数量超过8个后，后续的成员头像不再显示，导致用户无法看到所有的成员选项，这可能会影响用户的选择效率并降低用户体验。</t>
-        </is>
+          <t>邀请</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>该软件在用户创建群组并选择成员时存在严重的功能缺陷。首先，系统没有限制在选择群组成员时一次可以添加的人数，导致用户可以一次选择超过20个成员，这与软件的功能需求说明不符。其次，当用户选择的成员数量达到499人时，系统才提示用户最多只能选择30个成员，这进一步加剧了上述问题。这些缺陷可能导致用户体验不佳，甚至可能影响群组的正常运作。</t>
-        </is>
+          <t>列表</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>问题描述：在创建群组的过程中，当用户完成选择成员和填写群信息后，如果用户选择返回并稍后继续操作添加更多成员，发现之前输入的群信息已被重置，导致用户需要重新输入。此现象可能导致用户体验下降，因为他们必须重复之前的操作来更新他们的群信息。</t>
-        </is>
+          <t>消息</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>在软件界面中，当用户选择群成员时，系统并未提供邀请选项，而是直接将所选成员强制加入群组。这种强制性的加群策略与用户期望的邀请制不符，可能导致用户对系统的不满和困惑。</t>
-        </is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>该软件在选择成员时存在一个不合理的界面反馈问题。当用户试图添加超过20个成员，并且选择的人数达到或超过这个限制时，系统并没有立即给出提示，而是等到用户尝试完成创建操作时才显示“一次最多选择20人”的提示信息。这种设计导致用户在不知情的情况下可能会因为超出限制而无法成功创建团队或群组，从而产生不必要的挫败感和困扰。</t>
-        </is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>该软件在添加成员的功能上存在缺陷。当试图向一个群组中添加超过20个成员时，尽管系统显示了“添加成员”的选项并且可以继续点击，但实际上并没有成功添加更多的成员。这违反了软件的设计原则和预期功能，可能导致用户无法正确管理他们的群组或联系人列表。</t>
-        </is>
+          <t>同意</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>新建群组，添加群成员时，从上方搜索框搜索出XW牛仔很忙，点击添加，添加成功，返回添加群组之前的最近联系人界面，XW牛仔很忙显示并未添加，其实是同一个人，但是显示有错</t>
-        </is>
+          <t>出现</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>问题描述：该群组管理功能存在一个明显的bug，使得管理员在面对不符合群规范的成员时无法采取任何措施。具体来说，只有当群成员自己主动退出群组时，才能离开该群。因此，如果某个成员违反了群规定，管理员将无法通过踢出功能将其移出群组。这显然违背了群组管理的基本要求，可能导致对群内行为的控制失效。</t>
-        </is>
+          <t>设计</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>操作人员是非群主，在群聊页面，点击群组设置标志，页面转到群组设置页面，点击添加新成员，页面转到添加成员页面，有最近联系人列表，点击要拉进群的联系人，不需该联系人同意，直接加入群（实际：被拉进群的联系人应该有同意不同意的权限）</t>
-        </is>
+          <t>不符</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>问题描述：软件界面中，关于群组设置的权限部分存在逻辑错误。在“群组设置”中，当选择“允许所有人添加成员”时，下方的“请求加入群策略”权限选项包括了“同意加入”，“管理员审批”，和“拒绝请求”。这与上方的设置项存在明显的冲突。根据逻辑推理，若已经选择了“允许所有人添加成员”，则“请求加入群策略”中的“同意加入”、“管理员审批”和“拒绝请求”选项应是多余的或无效的，因为它们与主要设置相悖。</t>
-        </is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>在群组设置的添加成员功能中，当尝试添加的成员数量超过20人时，软件并未提供任何关于已超过上限或无法继续添加的提示。用户只有在点击确定按钮后才能收到相关的提示信息。</t>
-        </is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>创建群聊时，不可在没有添加成员的情况下创建。（不可创建空群）</t>
-        </is>
+          <t>头像</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>该软件在创建群聊时存在功能不一致的问题。当用户选择21个用户创建群聊时，系统不会立即进行提醒，只有在输入群名后才会给出提示。这与已经建立的群聊添加成员的功能形成对比，后者在选择21个用户时会立即给出提示。此外，当系统给出提示时，它会调出手机的输入框，这对于用户体验来说是不必要的，可能会造成困扰。</t>
-        </is>
+          <t>执行</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>该软件界面显示群组设置选项，其中包含群成员信息和群管理功能。然而，在尝试执行踢出群成员的操作时，系统似乎没有反应或错误提示，导致群主无法将成员从群组中移除。这可能表明一个功能性的问题，需要进一步的分析和调试来确定具体原因。</t>
-        </is>
+          <t>昵称</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>该软件在执行“新建群-添加成员”的操作时，当尝试一次添加21个成员时出现了问题。尽管系统显示了成功创建群组的消息，但在查看群组成员列表时，可以明显看出系统的响应延迟和性能下降。用户界面似乎没有正确地更新以反映新添加的成员，而且系统处理大量数据的能力似乎受到了限制，这导致用户体验下降。</t>
-        </is>
+          <t>请求</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>新建群选择群员时，应该可以选已存在于本地其他群聊中的成员为佳。</t>
-        </is>
+          <t>移除</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>在软件界面中，用户试图添加群聊时，系统只展示了最近联系人的列表，而没有提供任何其他选项或功能来创建或选择群聊成员。这导致用户无法正常地添加群聊成员，从而影响了软件的主要功能。</t>
-        </is>
+          <t>更改</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>在群聊的添加成员功能中，当尝试通过搜索用户名来添加用户时，出现了一个未加好友的人在选择栏中。这可能表明系统错误地显示了用户的社交状态，或者是一个界面显示问题。</t>
-        </is>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>该软件在设计上存在一个明显的功能错误，即添加成员的功能限制不明确。根据问题描述，软件原本的设计是一次最多只能添加20个成员。然而，在实际使用中，用户发现可以添加超过这个数量的成员。这种不一致可能导致软件在处理大量数据时出现问题，影响其性能和稳定性。</t>
-        </is>
+          <t>限制</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>发起群聊，添加成员，当添加成员超过20人时，没有直接提醒添加人员已经达到上限。</t>
-        </is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>在测试过程中，当进入“我的群组”界面并尝试添加成员时，系统并未正确地显示群成员数量的警告信息。尽管设置群名称为123并且点击了打勾图标以确认，但系统错误地允许了一个只有两个成员的群聊被创建，这与预期的功能不符，即群聊的成员数量不应少于3个。</t>
-        </is>
+          <t>展示</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>缺少修改群成员备注的功能。</t>
-        </is>
+          <t>界面显示</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>新建群，添加成员时可以勾选第21位成员，</t>
-        </is>
+          <t>当群</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>设置群成员为该群管理员时，没有相应的设置群管理员消息提示。</t>
-        </is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>这个bug的描述如下：在尝试通过搜索并选择群聊成员来创建群聊的过程中，系统未能按预期阻止用户选择超过20个成员。尽管系统提示了“已选中成员大于20时不能再选中”的信息，但用户仍然可以继续添加更多的成员，这违反了系统的预期行为。</t>
-        </is>
+          <t>创建</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>该软件在尝试创建群组时出现了一个bug。预期中，当用户选择的成员数超过20个时，系统应阻止用户继续添加成员并使确认按钮不可点击，以此提示用户已达到最大成员限制。但在实际测试中，即使选择了超过20个成员，用户仍可继续添加成员并点击确认按钮，导致系统未给出任何提示就进入了创建群组的页面。这可能导致了数据超载和系统性能问题，因为用户可能会无意中创建一个包含大量成员的群组，这可能超出了系统的处理能力。</t>
-        </is>
+          <t>群内</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>【预置条件】
-用户已登录
-【测试步骤】
-1.登录app，朋友-更多-发起群聊进入添加成员页面
-2.选中多个最近联系好友
-3.点击确认按钮
-【预期结果】
-添加成功，页面跳转至创建群组页面
-【实际结果】
-添加成功，但每次选中或取消选中时已选成员头像会闪动</t>
-        </is>
+          <t>发送</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>【预置条件】
-用户已登录，该群组已添加较多群成员
-【测试步骤】
-1.登录app，朋友-更多-发起群聊进入添加成员页面
-2.点击搜索图标，输入搜索条件进行搜索，如“3”
-3.选择20人或20人以下未加入群组的人员
-4.点击确认按钮
-【预期结果】
-添加成功，群组新增人员与所选人员一致
-【实际结果】
-添加失败，提示“此用户已经在群组”</t>
-        </is>
+          <t>应该</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>添加成员时要求最多只能20个，而当超过20个时不提醒，而且点击确定仍可以进入创建群组页面。</t>
-        </is>
+          <t>表明</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>问题描述：
-1. 重现步骤：用户首先使用手机号登录，然后尝试发起群聊并添加65个成员。在输入昵称后点击确定，但系统没有给出任何反应或提示。
-2. 期望结果：当用户添加超过20个成员时，系统应显示一个提示，告知用户已超出限制数量。
-3. 实际结果：尽管用户已添加了65个成员，但系统并未显示任何超出限制的提示。
-根据上述问题描述，这个bug的具体表现是：
-- 用户在尝试添加65个成员到群聊中时，系统并没有按照预期显示“超出20个成员”的提示。
-- 系统在用户点击确定按钮后没有任何反应或反馈，与期望的结果不符。</t>
-        </is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>这个bug描述的问题是：在创建群聊的过程中，当选择的成员包括陌生人时，系统应该不允许创建成功。然而，当前系统中，即使选择了陌生人作为成员，仍然可以成功地创建群聊。此外，在尝试加入不是好友的用户到新创建的群聊时，系统没有进行相应的身份验证或提示，导致非好友用户可以轻易地加入到群聊中。</t>
-        </is>
+          <t>违反</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>该应用程序在群聊中存在一个显示问题。新加入的成员无法查看到除他们之外其他成员的过往聊天记录，这违反了用户期望，可能导致信息不对称和沟通障碍。</t>
-        </is>
+          <t>不便</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>在群聊界面中，当有成员退出群聊时，当前的提示功能似乎出现了故障。具体来说，群主和仍在群聊中的其他成员并未收到任何关于成员退出的通知或提示，这可能导致了对群内动态的不知情，影响了群聊的管理和沟通效率。</t>
-        </is>
+          <t>相关</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>添加成员一次最多 20 个人，但是却可以选择超过20以上</t>
-        </is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>该软件中存在一个bug，当用户退出群组时，尽管群主在群成员列表中看不到该成员，但群主并未收到任何通知或提示表明有成员已退出。</t>
-        </is>
+          <t>情况</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>在群组设置中选择退出群组后，用户的手机提示“你退出了‘东大荒’”，但群主并未收到该成员已退出的系统通知。</t>
-        </is>
+          <t>明确</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>问题描述：在发起群聊时，当尝试添加成员并选择要添加的成员后，用户无法通过输入法的删除键来清除已选择的成员名单。唯一可用的方法是点击勾选框旁的取消按钮以取消选择。这不符合大多数人的操作习惯，因为删除键通常用于快速和方便地删除不需要的内容。</t>
-        </is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>当创建群聊时，已经在其他群组中聊过天，但是在添加成员界面中，最近联系人没有显示这个群。</t>
-        </is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>该软件在用户创建群聊后，当群成员退出时并未提供任何形式的提醒或通知，这与用户期望不符。用户可能无法得知哪些成员已经离开群聊，这可能导致群聊的管理和沟通效率受到影响。</t>
-        </is>
+          <t>移出</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>这个bug描述的问题是：群组管理员无法将已经加入群的成员踢出群。根据图片中显示的功能，在群组设置里面，只能进行“勋章”、“满勤”、“菜鸟入行”等操作，而没有关于踢出成员的选项或功能。这意味着即使管理员想要移除不良成员，他们也无法执行这一操作。这可能会导致群组内部出现不安全因素和不良聊天环境，从而影响到群组的整体体验和安全性。</t>
-        </is>
+          <t>查看</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>群主在建立群的时候如果设置了群的权限为“不允许任何人加入”或是“经过验证才能加入该群”，但是系统默认却允许群成员添加新成员进入，并且这个添加过程是不需要通知群主征得群主同意的，这样变破坏了群主设置该群权限的初衷，破环了群主的权利，不利于群的管理。</t>
-        </is>
+          <t>看到</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>新建群邀请好友，添加成员一次最多邀请20人。</t>
-        </is>
+          <t>相应</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>建群时，勾选成员超过限制数20个而未提醒。</t>
-        </is>
+          <t>群员</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>在图像中，管理员界面显示了一个群组设置的菜单。其中“群成员”一栏下有“添加群成员”和“转让群”两个选项，但点击后并未出现相应的功能或操作界面。特别地，“群主”一栏下有一个“这有什么好秘密”的文字描述，这似乎是一个无关的信息或错误提示，而不是实际的功能描述。此外，“群公告”和“群头像”以及“群共享”等其他功能也未显示具体操作或设置选项。从这些信息来看，该软件似乎存在功能缺失的问题，特别是与管理群组成员相关的功能部分。</t>
-        </is>
+          <t>策略</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>该软件中存在一个bug，即当群组管理员试图将某一成员强制退出群组时，该功能无法正常执行。尽管在“群成员”列表里可以看到该成员的头像和名称，但实际操作中却无法将其移除。这可能表明软件在处理群管理操作时存在问题，导致预期的功能未能实现。</t>
-        </is>
+          <t>能够</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>该软件界面显示了群组管理功能，包括添加和移除用户。然而，当尝试踢出某个用户时，系统似乎没有执行这个操作，导致用户没有被成功移除。这可能是一个bug，因为通常来说，群主或管理员应该能够移除任何成员。</t>
-        </is>
+          <t>仍然</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>该应用程序的群管理功能似乎存在缺陷，因为在该群组设置中没有提供添加或识别管理员的选项。这可能意味着群主无法将其他成员设置为管理员，或者应用程序本身的设计并未包括这一功能。此外，界面上也没有明显的“设置”或“管理”按钮，这进一步暗示了用户可能无法访问或更改群管理设置。</t>
-        </is>
+          <t>收到</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>从图片描述来看，这个功能似乎存在冗余。当用户在群里点击群成员列表中的自己时，系统允许用户与自己进行对话。这可能表明系统没有明确区分与其他群成员的对话和与自己的对话，可能导致用户操作上的困惑或误操作。</t>
-        </is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>该软件存在一个漏洞，用户可以通过群聊界面点击群成员列表中的自己来触发与自己的聊天功能。然而，系统并未为用户提供任何提示或警告，这可能会导致用户误操作或者误解软件的功能。</t>
-        </is>
+          <t>效率</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>在群资料页面中，显示了一个只有一名成员的群组。</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>在软件的群聊添加成员功能中，用户界面存在一个性能问题。当用户在成员列表上以高频率快速点击时，会出现成员图像闪烁的现象。这种闪动可能是由于界面渲染速度跟不上用户操作的速度导致的，这影响了用户体验，使得界面看起来不稳定和不专业。</t>
-        </is>
+          <t>未能</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>在群通讯录中选择未进群的成员时，当群成员数量较多，系统出现错误提示。</t>
-        </is>
+          <t>应用程序</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>该bug的描述如下：在群设置中，当群显示为“任何人都可以加入”时，原本的预期结果是组内其他人拉新成员入群需要管理员审核，而群主拉人则不需要。但实际测试结果与预期不符，即无论是群主还是组内其他成员拉新成员入群都不需要管理员审核，这显然违反了原始的设计意图和功能需求，可能导致群管理出现混乱。</t>
-        </is>
+          <t>区分</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>在添加成员的时候，一次只能添加20个人员。当我们在添加成员页面选择添加成员的时候我们能点击21个成员，在最后创建群组的时候才说一次不可以添加超过20个人员，若果修改还要返回，很麻烦，应该在添加成员时不能添加第21个人员。</t>
-        </is>
+          <t>踢</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>该软件在显示群成员时，没有遵循预期的首字母排序逻辑。用户期望看到的是群主位于列表前端，而其他成员根据首字母顺序排列。然而，当前显示的是直接按首字母排序，导致用户体验混乱，不符合常规的查看和排序方式。</t>
-        </is>
+          <t>识别</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>该Bug描述的问题是，在用户尝试将超过20名成员添加到群组时，系统会正确地提醒用户请求的数据超过了设定的限制。然而，这个提示并没有阻止用户继续添加更多的成员到群组中。当用户点击“确定”后，系统会立即弹出一个警告，告知用户请求的数据已超过限制。这导致用户必须返回到之前的界面去修改成员数量，从而给用户带来了不必要的麻烦和不便。</t>
-        </is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>在群聊中，当用户@一个其他成员后，如果需要撤销对特定成员的@标记，他们必须逐个删除字符。这导致了效率低下和不便的操作。更理想的用户体验应该是在@符号之后有一个空格，这样用户可以通过删除该空格来移除@的用户名称。当前的设计导致用户必须删除整个被@的用户名称串才能达到目的，这无疑增加了操作的复杂性。</t>
-        </is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>该软件在群聊功能中存在一个bug。当群主解散群聊时，系统仅向群主提示了信息，而没有通知所有群成员。同样，当群主尝试转让群聊权限时，系统也只向新群主发送了提示，并未通知其他群成员。此外，在群成员选择退出群聊时，系统仅向该成员发送了退出通知，而未通知群主。这违反了通常的社交软件设计逻辑，通常在此类操作发生时，应该同时通知所有相关方，以确保信息的透明度和公正性。</t>
-        </is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>在群聊中，新加入的成员会在“朋友”按钮或群聊页面显示提示。目前，系统同时提供了红色符号和声音两种提示方式来通知群成员有新成员加入，这可能会造成信息过载和不必要的干扰。建议优化为只向群主发送新成员加入的通知，或者减少提示方式，以提升用户体验。</t>
-        </is>
+          <t>提示信息</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>在尝试添加群成员的过程中，当选择的人数超过20人时，系统并没有立即发出超限的提示。相反，只有在用户开始输入群名称时，系统才显示“超过群限制”的警告。这可能导致用户在人数选择阶段产生误解，误以为可以随意增加群成员数量而不受限制。</t>
-        </is>
+          <t>长</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>在建立需要验证的群聊后，当有新的成员尝试加入时，尽管点击了“允许”，但在界面上并没有出现任何提示信息来告知用户加群成功或失败。这可能导致新成员无法确认自己的加入状态，从而造成沟通和互动上的不便。</t>
-        </is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>当用户尝试在群成员已被完全移除后进行转让操作时，系统并未提供适当的反馈。尽管所有群成员都已消失，但点击“转让群”后，界面仍然显示选择转让对象，并没有明确提示该群内已无其他成员可供转让。这可能导致用户误解或感到困惑，不知道该如何进行下一步操作。</t>
-        </is>
+          <t>误解</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>群主选择加群时虽然系统默认一次只能拉入20人，但是在选择时数量却可以选择超过20人，如下图所示，确认旁边的按钮已经是“21”人了。</t>
-        </is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>发起群聊-添加成员页面，断开网络，选中成员，点击确定，仍能进入到创建群组页面。</t>
-        </is>
+          <t>混乱</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>在用户界面中，当搜索并添加成员后，触控键盘没有正确收回。此外，候选成员的显示数量被限制为最多4个，这可能阻碍了用户的输入体验。</t>
-        </is>
+          <t>身份</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>添加群成员没有全选按钮。</t>
-        </is>
+          <t>这一</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>该软件中存在一个漏洞，允许群主无视成员的同意与否，随意将人员拉入群组。这可能导致用户隐私和信息安全的风险。</t>
-        </is>
+          <t>缺少</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>该软件界面显示群成员上限为20人，但用户可以通过勾选超过20人的选项来增加人数。这种设计导致用户在尝试添加更多成员时可能会感到困惑和挫败，因为它与实际的群成员上限不符，违反了直观的操作逻辑。</t>
-        </is>
+          <t>逻辑</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>新建群-添加成员，一次添加用户超过20人时没有相应非法提示</t>
-        </is>
+          <t>正确</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>该软件界面中新建群聊功能存在问题，用户在点击添加成员的按钮后，原本预期会直接显示“删除”和设置管理员等必备功能，但实际结果是需要长按群成员头像才能显示这些选项。这种设计使得用户操作不便，与预期结果不符，降低了用户体验。</t>
-        </is>
+          <t>具体来说</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>群成员在拉人时，只需要单方面邀请便可以将该成员拉入组内，这会给对方造成比较大的麻烦，有时候不想进的组也可以拉你进入。</t>
-        </is>
+          <t>按钮</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>在选择成员时,选中再取消用户的图标会闪烁</t>
-        </is>
+          <t>对话</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>群聊成员退出,群主没有收到消息提示</t>
-        </is>
+          <t>组成员</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>前提条件:发起群聊后添加成员
-复现步骤:
-1.发起群聊，点击添加成员，一次可以添加超过20名成员
-2.在创建群组时提示 请求数据超过系统限制
-预期结果:在勾选超过20名成员后，确定按钮变为不可点击状态</t>
-        </is>
+          <t>得知</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>该软件在群成员管理功能上存在缺陷，用户无法直接点击进入群成员的设置选项，必须进行长按操作才能实现。这种设计增加了用户的使用难度和不便，影响了用户体验。</t>
-        </is>
+          <t>拒绝请求</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>在这张图片中，显示了一个聊天界面，其中的成员似乎没有进行任何实质性的交流，而是重复使用相同的几个词汇和表情符号。这可能表明该群组正在经历某种形式的社交互动问题，如成员之间的沟通障碍或缺乏深度对话。此外，群聊的邀请规则设置可能存在问题，使得任何群成员都可以邀请他人加入，即使他们可能是陌生人，这与通常的隐私和安全措施不符。</t>
-        </is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>在添加成员是一次只能添加20个成员。但是软件在哪个步骤的时候没有提示，当到了提示的时候，再返回修改麻烦。而且没有提示做多一次20 个成员，不知道要修改成几个。</t>
-        </is>
+          <t>困惑</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>该软件在成员管理功能中存在不一致的问题。根据软件设计，一次只能添加20个成员，但在实际查找成员时，系统允许选择多达30人。这种不匹配的操作可能导致用户混淆或误操作，影响软件的用户体验和效率。</t>
-        </is>
+          <t>增加</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>在群设置中，群主与群成员看到的信息不一致。具体来说，当群主查看其个人资料时，他们看到的是一串数字“2004109408”，而群成员则直接看到了群主的昵称。这种差异可能导致群主无法准确识别自己的信息，从而影响他们在管理或更新群组信息时的体验。</t>
-        </is>
+          <t>部分</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>这是一个显示群成员列表的应用界面，但存在排序错误的问题。根据测试步骤，查看群成员的功能预期是首先展示群主的信息，然后按照字母顺序显示其他成员。然而，实际结果显示所有群成员是按首字母排序的，没有正确区分群主和其他成员，这与预期结果不符。</t>
-        </is>
+          <t>首字母</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>创建群聊，群成员人数达到上限，因限制了一次性最多添加的成员人数是20，如果我加入的人数是21，只有修改群名称之后，才提示我超出人数限制。建议：当我添加的人数超出范围时，就提示！</t>
-        </is>
+          <t>发生</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>添加成员限定20人，但可以选中20以上的用户，而在后续完成过程中显示超过限定人数警告。</t>
-        </is>
+          <t>入群</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>在创建群的过程中，用户在第一次选择群成员时没有收到任何关于只能选择20人的提示。尽管系统允许用户继续选择更多的群成员，但在尝试完成群组创建时，系统才在页面下方显示错误信息，提示数据超出限制。这可能导致用户混淆，不知道何时应该停止添加成员，以及为什么会在最后阶段出现错误。</t>
-        </is>
+          <t>成为</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>该问题描述了一个软件界面的bug。当用户在创建群聊后，尝试删除群聊中的某个成员时，点击该成员的头像会导致整个群聊被删除。</t>
-        </is>
+          <t>不能</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>在群聊设置中，只有群主有权限更改群名称，而其他群成员则无法进行此操作。这种设计限制了用户对群组身份的个性化表达，可能导致用户感到沮丧和不便，从而影响整体的用户体验。</t>
-        </is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>在发起群聊并尝试添加成员后，当输入关键字搜索并选择成员时，系统并未提供最多只能选择二十个成员的提示。即使已经选择了超过二十个成员，用户仍然可以继续选择其他成员。这种设计导致用户体验不佳，因为在达到某个数量后，应该有一个明确的限制或提示来指导用户操作。</t>
-        </is>
+          <t>审批</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>该软件界面中，“添加成员”功能缺乏完整的选择按钮。在用户尝试添加联系人时，必须手动选择一个联系人，然后再选择另一个，这样的操作方式对用户不友好，导致用户体验较差。</t>
-        </is>
+          <t>通常</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>在软件界面中，当用户尝试继续添加新的联系人时，之前已经添加过的成员名单仍然出现在列表中，导致这些成员信息被重复显示。</t>
-        </is>
+          <t>期望</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>在建立群聊的过程中，当尝试添加多个成员时，用户必须单独选择每个成员，而不能一次性选择所有要添加的成员。这种设计限制了用户的操作效率，使得添加群成员的过程变得繁琐和耗时，对用户体验产生了负面影响。</t>
-        </is>
+          <t>禁言</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>在添加群成员的时候，取消改群成员，所有的待加入成员的头像都在闪</t>
-        </is>
+          <t>角色</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>降低</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>任何人</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>超过</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>造成</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>感到</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>修改</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>该群</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>试图</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>包括</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>组员</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>出</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>安全性</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>隐私</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>设定</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>相同</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>提醒</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>应用</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>简介</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>障碍</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>特别</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>验证</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>其他人</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>入</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>必须</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>拉</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>之后</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>编辑</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>行为</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>用户界面</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>组内</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>聊天</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>之间</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>过程</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>意味着</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>整个</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>方式</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>权利</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>强制</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>符合</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>来看</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>一栏</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>审核</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>拉新</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>实现</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>困难</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>原本</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>离开</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>两个</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>不良</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>警告</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>仅</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>缺乏</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>新建</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>空格</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>具体</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>符号</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>进一步</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>故障</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>申请加入</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>助手</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>反应</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>出群</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>反馈</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>形式</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>所有人</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>知道</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>显然</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>确认</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>而群</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>触发</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>得到</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>个性化</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>速度</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>绕过</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>正在</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>图标</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>发现</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>一致</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>包含</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>主将</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>页面</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>随意</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>以下</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>缺失</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>风险</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>告知</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>想要</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>同样</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>不知情</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>适当</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>尤其</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>群里</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>机制</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>初衷</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>共享</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>能力</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>直观</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>区别</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>快速</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>确保</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>单独</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>社交</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>准确</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>响应</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>顺序</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>字母</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>测试步骤</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>位于</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>串</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>顺序排列</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>达到</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>最后</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>常规</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>结果显示</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>前端</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>物品</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>差异</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>标记</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2004109408</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>理想</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>更</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>数字</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>一串</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>个人资料</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>撤销</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>低下</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>特定</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>字符</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>逐个</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>购买</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>创建者</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>身份验证</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>不知</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>原始</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>现在</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>无论是</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>拉人</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>表达</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>沮丧</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>位置</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>群中</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>取消</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>指向</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>改群</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>进群</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>加入成员</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>通讯录</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>专业</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>稳定</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>看起来</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>跟不上</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>意图</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>需求</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>杰迷</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>变化</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>预测</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>不可</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>重新启动</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>无疑</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>正确区分</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>一点</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>群住</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>整齐</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>显得</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>框起来</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>文本框</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>别扭</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>一方</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>附加</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>非</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>目的</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>重复使用</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>复杂性</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>一步</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>单方面</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>拉人时</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>按群</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>深度</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>必备</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>信息安全</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>人员</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>无视</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>漏洞</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>被选为</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>是否</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>环节</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>规则</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>陌生人</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>安全措施</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>行使</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>说出</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>便</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>拉入</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>社交互动</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>交流</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>几个</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>渲染</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>词汇</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>实质性</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>表情符号</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>难度</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>经历</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>某种</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>组</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>进</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>不想</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>有时候</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>麻烦</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>比较</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>这会</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>让给</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>好友</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>解散</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>设为</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>过载</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>两种</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>学习</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>声音</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>红色</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>成本</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>目前</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>提示框</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>短</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>公正性</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>方</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>此类</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>软件设计</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>已阅</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>不必要</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>干扰</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>建议</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>遇到困难</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>不够</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>初始状态</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>供</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>对象</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>消失</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>完全</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>访问</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>区域</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>优化</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>指示</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>第一次</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>不知所措</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>批准</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>清晰性</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>提升</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>透明度</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>为群</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>闪动</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>配置</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>跟随</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>不变</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>保持</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>名</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>反映</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>实时</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>运作</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>下拉取</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>自定义</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>视觉</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>大大</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>每个</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>中为</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>显著</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>利用</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>多个</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>畅</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>改动</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>当已</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>现象</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>采取任何</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>失效</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>控制</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>要求</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>基本</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>违背</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>规定</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>主动</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>措施</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>规范</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>后续</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>面对</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>不满</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>对系统</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>制</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>加群</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>强制性</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>所选</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>不再</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>重新加入</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>当该</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>聊时</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>无障碍</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>选定</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>并长</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>引发</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>被邀请者</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>变动</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>拒绝</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>非群</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>类群</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>激活</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>不好</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>泄露</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>这样的话</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>文字</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>太</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>转给</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>组中</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>接收</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>第三方</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>分享</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>找到</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>希望</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>一位</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>实际上</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>不足</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>分出</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>地区</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>明确性</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>高效性</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>不同</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>某位</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>交互</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>转移</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>轻松</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>群号码</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>复制</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>下方</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>上方</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>项</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>内部</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>破环</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>破坏</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>变</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>征得</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>建立</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>环境</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>因素</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>群后</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>菜鸟</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>满勤</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>勋章</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>只能</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>里面</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>字数</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>产生</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>不利于</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>菜单</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>操作界面</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>这有</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>闪烁</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>高频率</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>上以</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>误操作</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>冗余</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>无法访问</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>暗示</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>实际操作</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>里</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>即当</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>具体操作</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>公告</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>无关</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>文字描述</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>活动</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>’</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>冲突</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>原因</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>打勾</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>差</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>是不是</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>居然</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>为佳</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>选已</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>群员时</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>确定</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>荒</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>调试</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>分析</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>功能性</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>相悖</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>无效</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>多余</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>应是</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>逻辑推理</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>应</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>少于</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>禁止</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>发言</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>东大</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>‘</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>看不到</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>动态</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>当有</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>对称</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>聊天记录</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>过往</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>之外</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>运行</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>人大</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>新创建</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>难以</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>标识</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>后缀</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>闪</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
